--- a/Ficha.xlsx
+++ b/Ficha.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -41,6 +41,9 @@
     <t>Estado nutricional</t>
   </si>
   <si>
+    <t>Estado de Hipertensão</t>
+  </si>
+  <si>
     <t>Tensão arterial sistólica</t>
   </si>
   <si>
@@ -71,9 +74,18 @@
     <t>Obesidade grau III</t>
   </si>
   <si>
+    <t>Normal (em risco)</t>
+  </si>
+  <si>
+    <t>Hipertensão leve</t>
+  </si>
+  <si>
     <t>Normal</t>
   </si>
   <si>
+    <t>Normal (ótimo)</t>
+  </si>
+  <si>
     <t>Obesidade grau II</t>
   </si>
   <si>
@@ -83,7 +95,13 @@
     <t>Enfermeiro</t>
   </si>
   <si>
+    <t>Hipertensão grave</t>
+  </si>
+  <si>
     <t>Obesidade grau I</t>
+  </si>
+  <si>
+    <t>Hipertensão moderada</t>
   </si>
   <si>
     <t>Desnutrição grau I</t>
@@ -100,7 +118,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -115,6 +133,10 @@
     </font>
     <font>
       <name val="Arial"/>
+      <color rgb="FFF00000"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <b val="1"/>
       <color rgb="00006600"/>
     </font>
@@ -124,7 +146,7 @@
       <color rgb="FFFFFFFF"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -141,6 +163,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00ccffcc"/>
         <bgColor rgb="00ccffcc"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00cc0000"/>
+        <bgColor rgb="00cc0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -162,11 +190,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -464,7 +495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +503,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,8 +549,11 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="n">
         <v>0</v>
       </c>
@@ -527,10 +561,10 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
         <v>67.59999999999999</v>
@@ -542,31 +576,34 @@
         <v>25.13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="n">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="n">
         <v>138</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>74</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>2</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>1.1</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" s="2" t="n">
         <v>12.5</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" s="4" t="n">
         <v>3.3</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" s="4" t="n">
         <v>5.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="n">
         <v>1</v>
       </c>
@@ -574,10 +611,10 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="n">
         <v>52.4</v>
@@ -589,31 +626,34 @@
         <v>24.92</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="n">
+        <v>18</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="n">
         <v>160</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>90</v>
-      </c>
-      <c r="K3" t="n">
-        <v>98</v>
       </c>
       <c r="L3" t="n">
         <v>98</v>
       </c>
       <c r="M3" t="n">
+        <v>98</v>
+      </c>
+      <c r="N3" s="2" t="n">
         <v>11.3</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" s="4" t="n">
         <v>3.3</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" s="4" t="n">
         <v>4.9</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="n">
         <v>2</v>
       </c>
@@ -621,10 +661,10 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
         <v>52</v>
@@ -635,32 +675,35 @@
       <c r="G4" t="n">
         <v>21.1</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="n">
         <v>148</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>79</v>
       </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
       <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
         <v>1.7</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" s="2" t="n">
         <v>13.7</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" s="2" t="n">
         <v>4.7</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" s="4" t="n">
         <v>5.8</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="n">
         <v>3</v>
       </c>
@@ -668,10 +711,10 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
         <v>48.5</v>
@@ -682,32 +725,35 @@
       <c r="G5" t="n">
         <v>20.19</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="n">
         <v>120</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>70</v>
       </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
       <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
         <v>1.5</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" s="2" t="n">
         <v>12.4</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" s="2" t="n">
         <v>4.2</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" s="4" t="n">
         <v>5.5</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="n">
         <v>4</v>
       </c>
@@ -715,10 +761,10 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="n">
         <v>62</v>
@@ -729,32 +775,35 @@
       <c r="G6" t="n">
         <v>24.22</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="n">
         <v>132</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>70</v>
       </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
       <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
         <v>1.6</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" s="2" t="n">
         <v>11.3</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" s="2" t="n">
         <v>3.6</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" s="2" t="n">
         <v>4.2</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" t="n">
         <v>5</v>
       </c>
@@ -762,10 +811,10 @@
         <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
         <v>86.8</v>
@@ -777,31 +826,34 @@
         <v>34.77</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="n">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="n">
         <v>128</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>78</v>
       </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
       <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
         <v>1.3</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" s="2" t="n">
         <v>4.1</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" s="4" t="n">
         <v>7.5</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" t="n">
         <v>6</v>
       </c>
@@ -809,10 +861,10 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="n">
         <v>86</v>
@@ -824,31 +876,34 @@
         <v>39.8</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>132</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>77</v>
       </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
       <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
         <v>1.7</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" s="2" t="n">
         <v>10.6</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" s="2" t="n">
         <v>3.8</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" s="4" t="n">
         <v>6.7</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" t="n">
         <v>7</v>
       </c>
@@ -856,10 +911,10 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
         <v>69.59999999999999</v>
@@ -871,31 +926,34 @@
         <v>27.19</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="n">
+        <v>18</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="n">
         <v>133</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>84</v>
       </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
       <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
         <v>1.6</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" s="2" t="n">
         <v>11.9</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" s="2" t="n">
         <v>4.4</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" s="4" t="n">
         <v>6.4</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" t="n">
         <v>8</v>
       </c>
@@ -903,10 +961,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
         <v>54.9</v>
@@ -917,32 +975,35 @@
       <c r="G10" t="n">
         <v>21.45</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="n">
         <v>160</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>72</v>
       </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
       <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
         <v>1.9</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" s="2" t="n">
         <v>13.7</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" s="2" t="n">
         <v>4.8</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" s="2" t="n">
         <v>4.5</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" t="n">
         <v>9</v>
       </c>
@@ -950,10 +1011,10 @@
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
         <v>67.2</v>
@@ -965,31 +1026,34 @@
         <v>26.25</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="n">
+        <v>18</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="n">
         <v>148</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>82</v>
       </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
       <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
         <v>1.4</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" s="2" t="n">
         <v>10.9</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" s="2" t="n">
         <v>4.2</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" s="2" t="n">
         <v>2.9</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12" t="n">
         <v>10</v>
       </c>
@@ -997,10 +1061,10 @@
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" t="n">
         <v>61.2</v>
@@ -1011,32 +1075,35 @@
       <c r="G12" t="n">
         <v>23.91</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="H12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" t="n">
         <v>134</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>78</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>2</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>1.5</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" s="4" t="n">
         <v>14.5</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" s="2" t="n">
         <v>4.4</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" s="2" t="n">
         <v>3.4</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13" t="n">
         <v>11</v>
       </c>
@@ -1044,10 +1111,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" t="n">
         <v>69.90000000000001</v>
@@ -1058,32 +1125,35 @@
       <c r="G13" t="n">
         <v>21.57</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="H13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="n">
         <v>150</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>80</v>
       </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
       <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
         <v>1.5</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" s="2" t="n">
         <v>11.9</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" s="2" t="n">
         <v>4.3</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" s="4" t="n">
         <v>4.6</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14" t="n">
         <v>12</v>
       </c>
@@ -1091,10 +1161,10 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" t="n">
         <v>63</v>
@@ -1106,31 +1176,34 @@
         <v>29.96</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" t="n">
+        <v>18</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="n">
         <v>150</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>70</v>
       </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
       <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
         <v>1.6</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" s="4" t="n">
         <v>12.9</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" s="4" t="n">
         <v>3.4</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" s="4" t="n">
         <v>4.6</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15" t="n">
         <v>13</v>
       </c>
@@ -1138,10 +1211,10 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E15" t="n">
         <v>71.5</v>
@@ -1153,31 +1226,34 @@
         <v>29.76</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" t="n">
+        <v>18</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" t="n">
         <v>182</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>82</v>
       </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
       <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
         <v>1.8</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" s="2" t="n">
         <v>10.4</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" s="2" t="n">
         <v>3.4</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16" t="n">
         <v>14</v>
       </c>
@@ -1185,10 +1261,10 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" t="n">
         <v>71.09999999999999</v>
@@ -1200,31 +1276,34 @@
         <v>27.77</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" t="n">
+        <v>18</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" t="n">
         <v>155</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>68</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>2</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>1.4</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" s="2" t="n">
         <v>12.3</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" s="2" t="n">
         <v>3.4</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:16">
       <c r="A17" t="n">
         <v>15</v>
       </c>
@@ -1232,10 +1311,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17" t="n">
         <v>75.59999999999999</v>
@@ -1247,31 +1326,34 @@
         <v>33.16</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" t="n">
+        <v>27</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" t="n">
         <v>187</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>97</v>
-      </c>
-      <c r="K17" t="n">
-        <v>98</v>
       </c>
       <c r="L17" t="n">
         <v>98</v>
       </c>
       <c r="M17" t="n">
+        <v>98</v>
+      </c>
+      <c r="N17" s="2" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" s="2" t="n">
         <v>3.9</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" s="2" t="n">
         <v>3.9</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:16">
       <c r="A18" t="n">
         <v>16</v>
       </c>
@@ -1279,10 +1361,10 @@
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18" t="n">
         <v>73</v>
@@ -1293,32 +1375,35 @@
       <c r="G18" t="n">
         <v>23.84</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="H18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="n">
         <v>135</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>96</v>
-      </c>
-      <c r="K18" t="n">
-        <v>98</v>
       </c>
       <c r="L18" t="n">
         <v>98</v>
       </c>
       <c r="M18" t="n">
+        <v>98</v>
+      </c>
+      <c r="N18" s="2" t="n">
         <v>12.6</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" s="2" t="n">
         <v>3.8</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" s="4" t="n">
         <v>5.4</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:16">
       <c r="A19" t="n">
         <v>17</v>
       </c>
@@ -1326,10 +1411,10 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19" t="n">
         <v>57.8</v>
@@ -1340,32 +1425,35 @@
       <c r="G19" t="n">
         <v>22.58</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="H19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="n">
         <v>123</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>70</v>
       </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
       <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
         <v>1.7</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" s="4" t="n">
         <v>15.5</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" s="2" t="n">
         <v>4.1</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" s="4" t="n">
         <v>5.2</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:16">
       <c r="A20" t="n">
         <v>18</v>
       </c>
@@ -1373,10 +1461,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20" t="n">
         <v>44.7</v>
@@ -1387,32 +1475,35 @@
       <c r="G20" t="n">
         <v>21.26</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="H20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" t="n">
         <v>111</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>56</v>
       </c>
-      <c r="K20" t="n">
-        <v>1</v>
-      </c>
       <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
         <v>2.6</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" s="4" t="n">
         <v>12.3</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" s="2" t="n">
         <v>4.3</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" s="4" t="n">
         <v>4.7</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:16">
       <c r="A21" t="n">
         <v>19</v>
       </c>
@@ -1420,10 +1511,10 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21" t="n">
         <v>53.4</v>
@@ -1434,32 +1525,35 @@
       <c r="G21" t="n">
         <v>19.85</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="H21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" t="n">
         <v>166</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>90</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>2</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>1.6</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" s="4" t="n">
         <v>15.6</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" s="2" t="n">
         <v>3.6</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" s="4" t="n">
         <v>4.9</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:16">
       <c r="A22" t="n">
         <v>20</v>
       </c>
@@ -1467,10 +1561,10 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E22" t="n">
         <v>55.5</v>
@@ -1481,32 +1575,35 @@
       <c r="G22" t="n">
         <v>21.68</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" t="n">
+      <c r="H22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
         <v>157</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>52</v>
       </c>
-      <c r="K22" t="n">
-        <v>1</v>
-      </c>
       <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
         <v>1.8</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" s="4" t="n">
         <v>13.4</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" s="4" t="n">
         <v>4.7</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:16">
       <c r="A23" t="n">
         <v>21</v>
       </c>
@@ -1514,10 +1611,10 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23" t="n">
         <v>39.7</v>
@@ -1529,31 +1626,34 @@
         <v>17.64</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" t="n">
+        <v>29</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" t="n">
         <v>156</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>66</v>
       </c>
-      <c r="K23" t="n">
-        <v>1</v>
-      </c>
       <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
         <v>3</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" s="2" t="n">
         <v>11.2</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" s="2" t="n">
         <v>4.2</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" s="2" t="n">
         <v>4.4</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:16">
       <c r="A24" t="n">
         <v>22</v>
       </c>
@@ -1561,10 +1661,10 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E24" t="n">
         <v>60.6</v>
@@ -1575,32 +1675,35 @@
       <c r="G24" t="n">
         <v>23.67</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" t="n">
+      <c r="H24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" t="n">
         <v>150</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>65</v>
       </c>
-      <c r="K24" t="n">
-        <v>1</v>
-      </c>
       <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
         <v>1.6</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" s="2" t="n">
         <v>4.5</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:16">
       <c r="A25" t="n">
         <v>23</v>
       </c>
@@ -1608,10 +1711,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E25" t="n">
         <v>57.9</v>
@@ -1622,32 +1725,35 @@
       <c r="G25" t="n">
         <v>24.1</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="H25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" t="n">
         <v>107</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>74</v>
-      </c>
-      <c r="K25" t="n">
-        <v>98</v>
       </c>
       <c r="L25" t="n">
         <v>98</v>
       </c>
       <c r="M25" t="n">
+        <v>98</v>
+      </c>
+      <c r="N25" s="4" t="n">
         <v>13.7</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" s="2" t="n">
         <v>4.1</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" s="2" t="n">
         <v>4.5</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:16">
       <c r="A26" t="n">
         <v>24</v>
       </c>
@@ -1655,10 +1761,10 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E26" t="n">
         <v>63.6</v>
@@ -1669,32 +1775,35 @@
       <c r="G26" t="n">
         <v>23.94</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" t="n">
+      <c r="H26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" t="n">
         <v>147</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>91</v>
-      </c>
-      <c r="K26" t="n">
-        <v>98</v>
       </c>
       <c r="L26" t="n">
         <v>98</v>
       </c>
       <c r="M26" t="n">
+        <v>98</v>
+      </c>
+      <c r="N26" s="2" t="n">
         <v>12.4</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" s="4" t="n">
         <v>6.3</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:16">
       <c r="A27" t="n">
         <v>25</v>
       </c>
@@ -1702,10 +1811,10 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E27" t="n">
         <v>58.7</v>
@@ -1716,32 +1825,35 @@
       <c r="G27" t="n">
         <v>22.93</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" t="n">
+      <c r="H27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="n">
         <v>146</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>78</v>
       </c>
-      <c r="K27" t="n">
-        <v>1</v>
-      </c>
       <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
         <v>1.8</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" s="2" t="n">
         <v>11.9</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" s="2" t="n">
         <v>3.8</v>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" s="2" t="n">
         <v>4.1</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:16">
       <c r="A28" t="n">
         <v>26</v>
       </c>
@@ -1749,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E28" t="n">
         <v>44</v>
@@ -1763,32 +1875,35 @@
       <c r="G28" t="n">
         <v>22.45</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" t="n">
+      <c r="H28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" t="n">
         <v>133</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>83</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>2</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>1.4</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" s="4" t="n">
         <v>13.1</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" s="2" t="n">
         <v>4.6</v>
       </c>
-      <c r="O28" t="n">
+      <c r="P28" s="4" t="n">
         <v>5.6</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:16">
       <c r="A29" t="n">
         <v>27</v>
       </c>
@@ -1796,10 +1911,10 @@
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E29" t="n">
         <v>62</v>
@@ -1811,31 +1926,34 @@
         <v>25.81</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" t="n">
+        <v>18</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" t="n">
         <v>132</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>65</v>
       </c>
-      <c r="K29" t="n">
-        <v>1</v>
-      </c>
       <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
         <v>1.9</v>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" s="2" t="n">
         <v>11.9</v>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" s="2" t="n">
         <v>4.1</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" s="4" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:16">
       <c r="A30" t="n">
         <v>28</v>
       </c>
@@ -1843,10 +1961,10 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E30" t="n">
         <v>55.8</v>
@@ -1857,32 +1975,35 @@
       <c r="G30" t="n">
         <v>24.8</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" t="n">
+      <c r="H30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" t="n">
         <v>145</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>96</v>
       </c>
-      <c r="K30" t="n">
-        <v>1</v>
-      </c>
       <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
         <v>2.6</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" s="4" t="n">
         <v>12.5</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="O30" t="n">
+      <c r="P30" s="2" t="n">
         <v>4.3</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:16">
       <c r="A31" t="n">
         <v>29</v>
       </c>
@@ -1890,10 +2011,10 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E31" t="n">
         <v>63.2</v>
@@ -1904,32 +2025,35 @@
       <c r="G31" t="n">
         <v>22.94</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" t="n">
+      <c r="H31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" t="n">
         <v>112</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>56</v>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>2</v>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>1.6</v>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" s="2" t="n">
         <v>11.4</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="O31" t="n">
+      <c r="P31" s="2" t="n">
         <v>4.5</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:16">
       <c r="A32" t="n">
         <v>30</v>
       </c>
@@ -1937,10 +2061,10 @@
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E32" t="n">
         <v>76.09999999999999</v>
@@ -1952,31 +2076,34 @@
         <v>31.68</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" t="n">
+        <v>27</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" t="n">
         <v>150</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>70</v>
       </c>
-      <c r="K32" t="n">
-        <v>1</v>
-      </c>
       <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
         <v>1.9</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" s="2" t="n">
         <v>11.3</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="O32" t="n">
+      <c r="P32" s="2" t="n">
         <v>3.2</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:16">
       <c r="A33" t="n">
         <v>31</v>
       </c>
@@ -1984,10 +2111,10 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E33" t="n">
         <v>51.5</v>
@@ -1998,32 +2125,35 @@
       <c r="G33" t="n">
         <v>22.89</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" t="n">
+      <c r="H33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" t="n">
         <v>130</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>80</v>
       </c>
-      <c r="K33" t="n">
-        <v>1</v>
-      </c>
       <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="n">
         <v>1.7</v>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" s="2" t="n">
         <v>12.4</v>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" s="2" t="n">
         <v>3.4</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:16">
       <c r="A34" t="n">
         <v>32</v>
       </c>
@@ -2031,10 +2161,10 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E34" t="n">
         <v>62.1</v>
@@ -2045,32 +2175,35 @@
       <c r="G34" t="n">
         <v>24.26</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" t="n">
+      <c r="H34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34" t="n">
         <v>173</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>67</v>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>2</v>
       </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
         <v>1.5</v>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" s="2" t="n">
         <v>12.5</v>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" s="2" t="n">
         <v>4.1</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" s="4" t="n">
         <v>5.2</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:16">
       <c r="A35" t="n">
         <v>33</v>
       </c>
@@ -2078,10 +2211,10 @@
         <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E35" t="n">
         <v>67.59999999999999</v>
@@ -2093,31 +2226,34 @@
         <v>26.41</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" t="n">
+        <v>18</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" t="n">
         <v>160</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>85</v>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>2</v>
       </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
         <v>1.9</v>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" s="2" t="n">
         <v>11.8</v>
       </c>
-      <c r="N35" t="n">
+      <c r="O35" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="O35" t="n">
+      <c r="P35" s="2" t="n">
         <v>4.4</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:16">
       <c r="A36" t="n">
         <v>34</v>
       </c>
@@ -2125,10 +2261,10 @@
         <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E36" t="n">
         <v>52</v>
@@ -2139,32 +2275,35 @@
       <c r="G36" t="n">
         <v>20.31</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" t="n">
+      <c r="H36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" t="n">
         <v>134</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>79</v>
       </c>
-      <c r="K36" t="n">
-        <v>1</v>
-      </c>
       <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="n">
         <v>2</v>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" s="2" t="n">
         <v>12.1</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" s="2" t="n">
         <v>3.7</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" s="4" t="n">
         <v>5.1</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:16">
       <c r="A37" t="n">
         <v>35</v>
       </c>
@@ -2172,10 +2311,10 @@
         <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E37" t="n">
         <v>42.4</v>
@@ -2186,32 +2325,35 @@
       <c r="G37" t="n">
         <v>18.6</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" t="n">
+      <c r="H37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" t="n">
         <v>169</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>85</v>
       </c>
-      <c r="K37" t="n">
-        <v>1</v>
-      </c>
       <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
         <v>2.3</v>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" s="2" t="n">
         <v>11.2</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="O37" t="n">
+      <c r="P37" s="4" t="n">
         <v>6.3</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:16">
       <c r="A38" t="n">
         <v>36</v>
       </c>
@@ -2219,10 +2361,10 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E38" t="n">
         <v>70.90000000000001</v>
@@ -2234,31 +2376,34 @@
         <v>27.7</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" t="n">
+        <v>18</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" t="n">
         <v>201</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>99</v>
       </c>
-      <c r="K38" t="n">
-        <v>1</v>
-      </c>
       <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
         <v>1.1</v>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" s="2" t="n">
         <v>11.9</v>
       </c>
-      <c r="N38" t="n">
+      <c r="O38" s="2" t="n">
         <v>4.1</v>
       </c>
-      <c r="O38" t="n">
+      <c r="P38" s="4" t="n">
         <v>5.4</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:16">
       <c r="A39" t="n">
         <v>37</v>
       </c>
@@ -2266,10 +2411,10 @@
         <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E39" t="n">
         <v>56.7</v>
@@ -2280,32 +2425,35 @@
       <c r="G39" t="n">
         <v>24.87</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" t="n">
+      <c r="H39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" t="n">
         <v>106</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>54</v>
       </c>
-      <c r="K39" t="n">
-        <v>1</v>
-      </c>
       <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
         <v>2.2</v>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" s="2" t="n">
         <v>11.5</v>
       </c>
-      <c r="N39" t="n">
+      <c r="O39" s="2" t="n">
         <v>4.3</v>
       </c>
-      <c r="O39" t="n">
+      <c r="P39" s="4" t="n">
         <v>4.9</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:16">
       <c r="A40" t="n">
         <v>38</v>
       </c>
@@ -2313,10 +2461,10 @@
         <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E40" t="n">
         <v>65</v>
@@ -2328,31 +2476,34 @@
         <v>25.39</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" t="n">
+        <v>18</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" t="n">
         <v>144</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>60</v>
       </c>
-      <c r="K40" t="n">
-        <v>1</v>
-      </c>
       <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
         <v>1.8</v>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" s="2" t="n">
         <v>11.4</v>
       </c>
-      <c r="N40" t="n">
+      <c r="O40" s="2" t="n">
         <v>4.3</v>
       </c>
-      <c r="O40" t="n">
+      <c r="P40" s="2" t="n">
         <v>3.8</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:16">
       <c r="A41" t="n">
         <v>39</v>
       </c>
@@ -2360,10 +2511,10 @@
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E41" t="n">
         <v>43.1</v>
@@ -2374,32 +2525,35 @@
       <c r="G41" t="n">
         <v>18.65</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I41" t="n">
+      <c r="H41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" t="n">
         <v>117</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>90</v>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>2</v>
       </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
         <v>1.8</v>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" s="2" t="n">
         <v>10.9</v>
       </c>
-      <c r="N41" t="n">
+      <c r="O41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="O41" t="n">
+      <c r="P41" s="4" t="n">
         <v>5.1</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:16">
       <c r="A42" t="n">
         <v>40</v>
       </c>
@@ -2407,10 +2561,10 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E42" t="n">
         <v>66.2</v>
@@ -2422,31 +2576,34 @@
         <v>27.55</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" t="n">
+        <v>18</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" t="n">
         <v>150</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>90</v>
       </c>
-      <c r="K42" t="n">
-        <v>1</v>
-      </c>
       <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
         <v>1.5</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" s="2" t="n">
         <v>13.2</v>
       </c>
-      <c r="N42" t="n">
+      <c r="O42" s="2" t="n">
         <v>4.2</v>
       </c>
-      <c r="O42" t="n">
+      <c r="P42" s="2" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:16">
       <c r="A43" t="n">
         <v>41</v>
       </c>
@@ -2454,10 +2611,10 @@
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E43" t="n">
         <v>41.8</v>
@@ -2469,34 +2626,37 @@
         <v>17.63</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I43" t="n">
+        <v>29</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" t="n">
         <v>160</v>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>100</v>
       </c>
-      <c r="K43" t="n">
-        <v>1</v>
-      </c>
       <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="n">
         <v>2.2</v>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="N43" t="n">
+      <c r="O43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="O43" t="n">
+      <c r="P43" s="4" t="n">
         <v>5.6</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:16">
       <c r="A44" s="1" t="s"/>
       <c r="B44" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C44" s="1" t="s"/>
       <c r="D44" s="1" t="s"/>
@@ -2513,10 +2673,7 @@
         <v/>
       </c>
       <c r="H44" s="1" t="s"/>
-      <c r="I44" s="1">
-        <f>MEDIAN(I1:I43)</f>
-        <v/>
-      </c>
+      <c r="I44" s="1" t="s"/>
       <c r="J44" s="1">
         <f>MEDIAN(J1:J43)</f>
         <v/>
@@ -2541,11 +2698,15 @@
         <f>MEDIAN(O1:O43)</f>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="P44" s="1">
+        <f>MEDIAN(P1:P43)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" s="1" t="s"/>
       <c r="B45" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C45" s="1" t="s"/>
       <c r="D45" s="1" t="s"/>
@@ -2562,10 +2723,7 @@
         <v/>
       </c>
       <c r="H45" s="1" t="s"/>
-      <c r="I45" s="1">
-        <f>STDEV(I1:I43)</f>
-        <v/>
-      </c>
+      <c r="I45" s="1" t="s"/>
       <c r="J45" s="1">
         <f>STDEV(J1:J43)</f>
         <v/>
@@ -2588,6 +2746,10 @@
       </c>
       <c r="O45" s="1">
         <f>STDEV(O1:O43)</f>
+        <v/>
+      </c>
+      <c r="P45" s="1">
+        <f>STDEV(P1:P43)</f>
         <v/>
       </c>
     </row>
